--- a/all_planchette/17.11.2023.xlsx
+++ b/all_planchette/17.11.2023.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="rE4HfviTgdAHAaKgFN73rb9y2X5I1BfyClpLkBVjwEo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="xKqH9bYn1opnixHv79sldfPMVm5qjvgnCHRNspaF8kc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="198">
   <si>
     <t>Пара 1</t>
   </si>
@@ -450,6 +450,9 @@
     <t>ИС-23</t>
   </si>
   <si>
+    <t>Немчицкая</t>
+  </si>
+  <si>
     <t>Иванов В.С.</t>
   </si>
   <si>
@@ -498,25 +501,25 @@
     <t>Столярова Ю.Б.</t>
   </si>
   <si>
+    <t>Мельникова</t>
+  </si>
+  <si>
     <t>СА-26</t>
   </si>
   <si>
     <t>Романенко Е.Л.</t>
   </si>
   <si>
-    <t>Мельникова</t>
-  </si>
-  <si>
     <t>СА-21</t>
   </si>
   <si>
     <t>Пустоветова С.Ю.</t>
   </si>
   <si>
+    <t>ИС-21</t>
+  </si>
+  <si>
     <t>ПОКС-44w</t>
-  </si>
-  <si>
-    <t>ИС-21</t>
   </si>
   <si>
     <t>Петрова М.Е.</t>
@@ -650,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +664,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -714,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -762,6 +771,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3191,7 +3207,9 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="D6" s="2">
         <v>322.0</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3256,10 +3274,10 @@
         <v>325.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3267,7 +3285,7 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>71</v>
@@ -3276,7 +3294,7 @@
         <v>326.0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>49</v>
@@ -3339,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -3359,7 +3377,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -3392,10 +3410,10 @@
         <v>408.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -3412,7 +3430,7 @@
         <v>410.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>35</v>
@@ -3432,7 +3450,7 @@
         <v>411.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>125</v>
@@ -3449,7 +3467,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -3460,13 +3478,13 @@
         <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2">
         <v>414.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>102</v>
@@ -3500,7 +3518,7 @@
         <v>124</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2">
         <v>415.0</v>
@@ -3517,19 +3535,19 @@
         <v>214.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D23" s="2">
         <v>416.0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>51</v>
+      <c r="E23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -3539,13 +3557,13 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2">
-        <v>418.0</v>
+        <v>416.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -3559,13 +3577,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>420.0</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="11" t="s">
+        <v>418.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -3573,19 +3591,13 @@
         <v>217.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D26" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>55</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -3601,10 +3613,10 @@
       <c r="D27" s="2">
         <v>422.0</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3618,14 +3630,14 @@
       <c r="C28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>58</v>
+      <c r="D28" s="2">
+        <v>422.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -3636,16 +3648,16 @@
         <v>137</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>67</v>
+        <v>166</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -3659,13 +3671,13 @@
         <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -3673,36 +3685,36 @@
         <v>307.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>310.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
@@ -3715,13 +3727,13 @@
         <v>130</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -3735,10 +3747,14 @@
         <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="7" t="s">
@@ -3747,15 +3763,15 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -3765,26 +3781,22 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>169</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3793,23 +3805,37 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>171</v>
+      <c r="F41" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3842,14 +3868,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="19">
+      <c r="A1" s="22">
         <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3884,7 +3910,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>118</v>
@@ -3900,25 +3926,28 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
@@ -3943,10 +3972,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -3954,19 +3983,19 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3983,7 +4012,7 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
@@ -4003,7 +4032,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>93</v>
@@ -4046,7 +4075,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -4070,19 +4099,19 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -4099,7 +4128,7 @@
         <v>410.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>35</v>
@@ -4115,10 +4144,10 @@
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4126,7 +4155,7 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>125</v>
@@ -4135,10 +4164,10 @@
         <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -4149,7 +4178,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
@@ -4182,10 +4211,10 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D20" s="2">
         <v>416.0</v>
@@ -4202,19 +4231,19 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -4222,7 +4251,7 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>106</v>
@@ -4261,7 +4290,7 @@
         <v>422.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>55</v>
@@ -4274,7 +4303,7 @@
       <c r="B25" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4312,8 +4341,8 @@
       <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
@@ -4345,7 +4374,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>134</v>
@@ -4361,7 +4390,7 @@
         <v>75</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>136</v>
@@ -4375,7 +4404,7 @@
         <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
@@ -4418,11 +4447,11 @@
       <c r="D34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>169</v>
+      <c r="E34" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -4434,7 +4463,7 @@
         <v>94</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -4445,10 +4474,10 @@
         <v>81</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -4462,7 +4491,7 @@
         <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4528,10 @@
         <v>45247.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4549,19 +4578,19 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -4574,7 +4603,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>90</v>
@@ -4594,10 +4623,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -4605,19 +4634,19 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="7">
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4630,7 +4659,7 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
@@ -4646,7 +4675,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>93</v>
@@ -4697,10 +4726,10 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -4730,10 +4759,10 @@
         <v>411.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4741,19 +4770,13 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -4766,10 +4789,10 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -4782,7 +4805,7 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
@@ -4797,15 +4820,19 @@
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>106</v>
@@ -4814,7 +4841,7 @@
         <v>418.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>130</v>
@@ -4825,10 +4852,10 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="2">
         <v>420.0</v>
@@ -4850,7 +4877,7 @@
         <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>57</v>
@@ -4866,7 +4893,7 @@
         <v>422.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>55</v>
@@ -4893,7 +4920,7 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>125</v>
@@ -4961,10 +4988,10 @@
         <v>312.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
@@ -5066,14 +5093,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="22">
+      <c r="A1" s="25">
         <v>45247.0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="23" t="s">
         <v>193</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5083,47 +5110,47 @@
       <c r="A2" s="8">
         <v>5.0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="8">
         <v>316.0</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="8">
         <v>6.0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="8">
         <v>318.0</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="8">
         <v>103.0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="8">
         <v>320.0</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="27">
         <v>104.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" s="8">
         <v>322.0</v>
@@ -5132,23 +5159,23 @@
         <v>164</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="8">
         <v>106.0</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="8">
         <v>323.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -5165,10 +5192,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -5185,10 +5212,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -5196,19 +5223,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8">
         <v>326.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -5221,7 +5248,7 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>93</v>
@@ -5231,13 +5258,13 @@
       <c r="A11" s="8">
         <v>114.0</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8">
         <v>404.0</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
@@ -5249,10 +5276,10 @@
         <v>406.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -5264,8 +5291,8 @@
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="8">
@@ -5292,8 +5319,8 @@
       <c r="D15" s="8">
         <v>410.0</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -5312,10 +5339,10 @@
         <v>210.0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" s="8">
         <v>412.0</v>
@@ -5327,16 +5354,16 @@
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>414.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -5353,7 +5380,7 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>38</v>
@@ -5368,15 +5395,15 @@
       <c r="D20" s="8">
         <v>416.0</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="8">
         <v>214.0</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="8">
         <v>418.0</v>
       </c>
@@ -5387,16 +5414,16 @@
       <c r="A22" s="8">
         <v>216.0</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="8">
         <v>420.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -5409,7 +5436,7 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>55</v>
@@ -5424,15 +5451,15 @@
       <c r="D24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="8">
         <v>220.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>53</v>
@@ -5440,55 +5467,53 @@
       <c r="D25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="8">
         <v>303.0</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="8">
         <v>305.0</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="8">
         <v>306.0</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="8">
         <v>307.0</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="8" t="s">
         <v>75</v>
       </c>
@@ -5499,29 +5524,29 @@
       <c r="A30" s="8">
         <v>310.0</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="6"/>
       <c r="D30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="8">
         <v>312.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="8">
@@ -5532,8 +5557,8 @@
       <c r="D32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="8" t="s">
@@ -5544,38 +5569,38 @@
       <c r="D33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
